--- a/Soumatome N2 Kanji.xlsx
+++ b/Soumatome N2 Kanji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="773" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="文法" sheetId="9" r:id="rId1"/>
@@ -17,9 +17,12 @@
     <sheet name="W8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId10"/>
+    <sheet name="the thong thuong" sheetId="11" r:id="rId11"/>
+    <sheet name="助詞" sheetId="12" r:id="rId12"/>
+    <sheet name="問題3" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">文法!$A$1:$N$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">文法!$A$1:$O$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="1748">
   <si>
     <t>硬貨</t>
   </si>
@@ -3510,12 +3513,6 @@
     <t>QUÁ TRÌNH</t>
   </si>
   <si>
-    <t>MS Gothic</t>
-  </si>
-  <si>
-    <t>yaritai shigoto ha nanimo yaranai desu, demo, itsumo nenshuu ha 450man ijou 😀😀😀</t>
-  </si>
-  <si>
     <t>BÌNH QUÂN</t>
   </si>
   <si>
@@ -3561,9 +3558,6 @@
     <t>DUNG DỊCH</t>
   </si>
   <si>
-    <t>簡単</t>
-  </si>
-  <si>
     <t>逃走</t>
   </si>
   <si>
@@ -3675,9 +3669,6 @@
     <t>罪</t>
   </si>
   <si>
-    <t>無罪</t>
-  </si>
-  <si>
     <t>有罪</t>
   </si>
   <si>
@@ -3915,9 +3906,6 @@
     <t>い、ち、り</t>
   </si>
   <si>
-    <t>み、び、に</t>
-  </si>
-  <si>
     <t>し</t>
   </si>
   <si>
@@ -4459,13 +4447,877 @@
   </si>
   <si>
     <t>基本</t>
+  </si>
+  <si>
+    <t>Bại</t>
+  </si>
+  <si>
+    <t>武力で隣国を圧迫する</t>
+  </si>
+  <si>
+    <t>武器持ち込み。禁止</t>
+  </si>
+  <si>
+    <t>同感</t>
+  </si>
+  <si>
+    <t>同意</t>
+  </si>
+  <si>
+    <t>同情</t>
+  </si>
+  <si>
+    <t>共感</t>
+  </si>
+  <si>
+    <t>Thống nhất ý kiến (sau khi bàn bạc, lấy ý kiến từng phía)</t>
+  </si>
+  <si>
+    <t>Đồng cảm ( thấu hiểu cảm xúc của ng khác)</t>
+  </si>
+  <si>
+    <t>Cảm thông, thương hại (với hoàn cảnh của ngkhac= có lòng trắc ẩn)</t>
+  </si>
+  <si>
+    <t>Tán thành, đồng ý (chấp nhận, cho phép..)</t>
+  </si>
+  <si>
+    <t>Đồng tình(chung suy nghĩ)</t>
+  </si>
+  <si>
+    <t>簡単=簡易</t>
+  </si>
+  <si>
+    <t>trẻ sơ sinh (0~1 tuổi)</t>
+  </si>
+  <si>
+    <t>trẻ con (1-6 tuổi)</t>
+  </si>
+  <si>
+    <t>trẻ em (6-15 tuổi)</t>
+  </si>
+  <si>
+    <t>青年</t>
+  </si>
+  <si>
+    <t>中年</t>
+  </si>
+  <si>
+    <t>Thanh niên</t>
+  </si>
+  <si>
+    <t>Trung tuổi</t>
+  </si>
+  <si>
+    <t>無罪=無実</t>
+  </si>
+  <si>
+    <t>典型</t>
+  </si>
+  <si>
+    <t>小学生＝児童</t>
+  </si>
+  <si>
+    <t>中学生＝生徒</t>
+  </si>
+  <si>
+    <t>高校生＝生徒</t>
+  </si>
+  <si>
+    <t>大学生＝学生</t>
+  </si>
+  <si>
+    <t>Thể lịch sự</t>
+  </si>
+  <si>
+    <t>Thể thông thường</t>
+  </si>
+  <si>
+    <t>Ý nghĩa</t>
+  </si>
+  <si>
+    <t>Bài</t>
+  </si>
+  <si>
+    <t>飲みたいです</t>
+  </si>
+  <si>
+    <t>飲みたい</t>
+  </si>
+  <si>
+    <t>Muốn uống</t>
+  </si>
+  <si>
+    <t>飲みに 行きます</t>
+  </si>
+  <si>
+    <t>飲みに 行く</t>
+  </si>
+  <si>
+    <t>Đi uống</t>
+  </si>
+  <si>
+    <t>書いてください</t>
+  </si>
+  <si>
+    <t>書いて</t>
+  </si>
+  <si>
+    <t>Xin hãy viết</t>
+  </si>
+  <si>
+    <t>書いています</t>
+  </si>
+  <si>
+    <t>書いている</t>
+  </si>
+  <si>
+    <t>Đang viết</t>
+  </si>
+  <si>
+    <t>書いても いいです</t>
+  </si>
+  <si>
+    <t>書いても いい</t>
+  </si>
+  <si>
+    <t>Có thể viết</t>
+  </si>
+  <si>
+    <t>書かなくてもいいです</t>
+  </si>
+  <si>
+    <t>書かなくても いい</t>
+  </si>
+  <si>
+    <t>Không cần phải viết</t>
+  </si>
+  <si>
+    <t>書いてあげます</t>
+  </si>
+  <si>
+    <t>書いてあげる</t>
+  </si>
+  <si>
+    <t>Sẽ viết giúp cho</t>
+  </si>
+  <si>
+    <t>書いてもらいます</t>
+  </si>
+  <si>
+    <t>書いてもらう</t>
+  </si>
+  <si>
+    <t>Nhờ viết giúp</t>
+  </si>
+  <si>
+    <t>書いてくれます</t>
+  </si>
+  <si>
+    <t>書いてくれる</t>
+  </si>
+  <si>
+    <t>Viết giúp đi</t>
+  </si>
+  <si>
+    <t>行かなければなりません</t>
+  </si>
+  <si>
+    <t>行かなければならない</t>
+  </si>
+  <si>
+    <t>Phải đi</t>
+  </si>
+  <si>
+    <t>食べることが できます</t>
+  </si>
+  <si>
+    <t>食べることが できる</t>
+  </si>
+  <si>
+    <t>Có thể ăn</t>
+  </si>
+  <si>
+    <t>食べることです</t>
+  </si>
+  <si>
+    <t>食べることだ</t>
+  </si>
+  <si>
+    <t>(là) để ăn</t>
+  </si>
+  <si>
+    <t>読んだことがあります</t>
+  </si>
+  <si>
+    <t>読んだことがある</t>
+  </si>
+  <si>
+    <t>Có đọc</t>
+  </si>
+  <si>
+    <t>読んだり、書いたりします</t>
+  </si>
+  <si>
+    <t>読んだり、書いたりする</t>
+  </si>
+  <si>
+    <t>Đọc, viết và… </t>
+  </si>
+  <si>
+    <t>2.Thể văn lịch sự và thông thường của các nhóm từ ngữ theo sau</t>
+  </si>
+  <si>
+    <t>1.Động từ, tính từ, danh từ</t>
+  </si>
+  <si>
+    <t>Động từ</t>
+  </si>
+  <si>
+    <t>かきます</t>
+  </si>
+  <si>
+    <t>かきません</t>
+  </si>
+  <si>
+    <t>かきました</t>
+  </si>
+  <si>
+    <t>かきませんでした</t>
+  </si>
+  <si>
+    <t>かく(thể từ điển)</t>
+  </si>
+  <si>
+    <t>かかない (thể ない)</t>
+  </si>
+  <si>
+    <t>かいた (thể た)</t>
+  </si>
+  <si>
+    <t>かかなかった (thể ない quá khứ)</t>
+  </si>
+  <si>
+    <t>Tính từ -i </t>
+  </si>
+  <si>
+    <t>あついです</t>
+  </si>
+  <si>
+    <t>あつくないです</t>
+  </si>
+  <si>
+    <t>あつかったです</t>
+  </si>
+  <si>
+    <t>あつくなかったです</t>
+  </si>
+  <si>
+    <t>あつい (bỏ です)</t>
+  </si>
+  <si>
+    <t> あつくない</t>
+  </si>
+  <si>
+    <t>あつかった</t>
+  </si>
+  <si>
+    <t>あつくなかった</t>
+  </si>
+  <si>
+    <t>ひまです</t>
+  </si>
+  <si>
+    <t>ひまだ</t>
+  </si>
+  <si>
+    <t> Tính từ -na </t>
+  </si>
+  <si>
+    <t> Danh từ</t>
+  </si>
+  <si>
+    <t>ひまではありません</t>
+  </si>
+  <si>
+    <t>ひまでした</t>
+  </si>
+  <si>
+    <t>ひまではありませんでした</t>
+  </si>
+  <si>
+    <t>ひまではない</t>
+  </si>
+  <si>
+    <t>ひまだった</t>
+  </si>
+  <si>
+    <t>ひまではなかった</t>
+  </si>
+  <si>
+    <t>う、つ、る</t>
+  </si>
+  <si>
+    <t>く</t>
+  </si>
+  <si>
+    <t>ぐ</t>
+  </si>
+  <si>
+    <t>む、ぶ、ぐ</t>
+  </si>
+  <si>
+    <t>び、み、に</t>
+  </si>
+  <si>
+    <t>感動</t>
+  </si>
+  <si>
+    <t>感嘆</t>
+  </si>
+  <si>
+    <t>感服</t>
+  </si>
+  <si>
+    <t>TRỢ TỪ VÀ CÁCH DÙNG</t>
+  </si>
+  <si>
+    <t>は</t>
+  </si>
+  <si>
+    <t>– Đọc là わ</t>
+  </si>
+  <si>
+    <t>‐Nghĩa: “là”, “thì”</t>
+  </si>
+  <si>
+    <t>– Dùng để nhấn mạnh, giải thích nội dung phía sau nó.</t>
+  </si>
+  <si>
+    <t>* れい：わたしはChi　です。Tôi là Chi  </t>
+  </si>
+  <si>
+    <t>これは料理の本です。Đây là quyển sách về nấu ăn.</t>
+  </si>
+  <si>
+    <t>が</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Dùng đề miêu tả sự tồn tại .</t>
+    </r>
+  </si>
+  <si>
+    <t>N がいます・あります。れい：つくえのうえに。電話(でんわ)があります。Trên bàn có cái điện thoại.</t>
+  </si>
+  <si>
+    <t>2. Dùng đề nhấn mạnh tính từ.</t>
+  </si>
+  <si>
+    <t>れい：かれの目がおおきいです。Mắt của anh ấy to.</t>
+  </si>
+  <si>
+    <t>3. Thường đi chung với động từ thể khả năng.</t>
+  </si>
+  <si>
+    <t>N  が + thể khả năng.れい：にほんごができます。Tôi có thể nói tiếng nhật　えいごがわかります。Tôi hiểu tiếng anh.</t>
+  </si>
+  <si>
+    <t>4. Thường dùng tự động từ.</t>
+  </si>
+  <si>
+    <t>Cách nhớ: Tự が　tha を</t>
+  </si>
+  <si>
+    <t>5. Trong một số trường hợp, “が“có nghĩa là “Nhưng”</t>
+  </si>
+  <si>
+    <t>れい：やすいですがきれいです。Rẻ nhưng mà đẹp.</t>
+  </si>
+  <si>
+    <t>6. Được dùng với ý nghĩa như trợ từ は。</t>
+  </si>
+  <si>
+    <t>を</t>
+  </si>
+  <si>
+    <r>
+      <t>– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Được dùng với tha động từ, dùng để nhấn mạnh tân ngữ, đối tượng của hành động</t>
+    </r>
+  </si>
+  <si>
+    <t>れい：パソをたべます。Ăn bánh mỳ. </t>
+  </si>
+  <si>
+    <t>– Chỉ thời điểm diễn ra hành động.</t>
+  </si>
+  <si>
+    <t>れい：6時(じ)に起(お)きます。</t>
+  </si>
+  <si>
+    <t>– Chỉ địa điểm có sự vật, sự việc hiện hữu.</t>
+  </si>
+  <si>
+    <t>れい:うちに犬(いぬ)がいます。Có con chó ở nhà.- Chỉ mục đíchれい:スキーに行きます。</t>
+  </si>
+  <si>
+    <t>– Chỉ số lần thực hiện hành động</t>
+  </si>
+  <si>
+    <t>れい:一年に三回ダナンへ行きます。Một năm đi Đà Nẵng 3 lần.</t>
+  </si>
+  <si>
+    <t>– Chỉ đối tượng gián tiếp của hành động (người nhận)</t>
+  </si>
+  <si>
+    <t>れい:母(はは)に電話(でんわ)します。Gọi điện cho mẹ.</t>
+  </si>
+  <si>
+    <r>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Cách dùng thêm của trợ từ　‘’に‘’ và trợ từ　‘’を‘’ thông qua cách nhớ câu: “Vào に ra を, lên にxuống を”</t>
+    </r>
+  </si>
+  <si>
+    <t>れい:　</t>
+  </si>
+  <si>
+    <t>うちにはいります。Vào nhà.　　　</t>
+  </si>
+  <si>
+    <t>がっこを卒業します。Ra trường　</t>
+  </si>
+  <si>
+    <t>車に乗ります. Lên xe　</t>
+  </si>
+  <si>
+    <t>くるまをおります。Xuống xe.</t>
+  </si>
+  <si>
+    <t>で</t>
+  </si>
+  <si>
+    <t>1. Bằng phương tiện/ bằng cách</t>
+  </si>
+  <si>
+    <t>パスで帰(かえ)ります。Về bằng xe bus.</t>
+  </si>
+  <si>
+    <t>2. Làm gì ~ ở đâu:</t>
+  </si>
+  <si>
+    <t>レズトランで食(た)べます。Ăn ở nhà hàng</t>
+  </si>
+  <si>
+    <t>3. Trướcで là lý do, nguyên nhân:</t>
+  </si>
+  <si>
+    <t>雨で、いきませんでした。Vì mưa nên đã không đi.</t>
+  </si>
+  <si>
+    <t>4. Biểu thị nhóm:</t>
+  </si>
+  <si>
+    <t>２人で行きます。Đi 2 người.</t>
+  </si>
+  <si>
+    <t>へ</t>
+  </si>
+  <si>
+    <t>1 Địa điểm へ V（chuyển động）</t>
+  </si>
+  <si>
+    <t>れい:韓国へ行きます。Đi đến Hàn Quốc.</t>
+  </si>
+  <si>
+    <t>へ Dùng để chỉ địa điểm mà động từ hướng đến.</t>
+  </si>
+  <si>
+    <t>から</t>
+  </si>
+  <si>
+    <t>– Nghĩa:”Từ”, trong trường hợp này nó thể hiện sự bắt đầu của thời gian, vị trí.</t>
+  </si>
+  <si>
+    <t>れい:　11時から寝ます. Ngủ từ lúc 11 giờ             </t>
+  </si>
+  <si>
+    <t>うちからえきまで１０分ですTừ nhà đến trường mất 10 phút.</t>
+  </si>
+  <si>
+    <t>– Thể hiện nguyên nhân.</t>
+  </si>
+  <si>
+    <t>れい:</t>
+  </si>
+  <si>
+    <t>今日は休みですから、うちにいます。Vì hôm nay được nghỉ nên tôi ở nhà. </t>
+  </si>
+  <si>
+    <t>まで</t>
+  </si>
+  <si>
+    <t>– Nghĩa: đến , cho đến khi.</t>
+  </si>
+  <si>
+    <t>れい:　９時まではたらきます。Làm việc đến 9h </t>
+  </si>
+  <si>
+    <t>の</t>
+  </si>
+  <si>
+    <t>1. Mang nghĩa thể hiện sự sở hữu.</t>
+  </si>
+  <si>
+    <t>これは父(ちち)の電話(でんわ)です。</t>
+  </si>
+  <si>
+    <t>2. Thể hiện xuất xứ</t>
+  </si>
+  <si>
+    <t>3. Là cách đọc dấu ngang trong điện thoại, địa chỉ nhà</t>
+  </si>
+  <si>
+    <t>わたしのでんわばんごは033-9484-09</t>
+  </si>
+  <si>
+    <t>Trong trường hợp này dấu gạch ngang sẽ đọc là の。　</t>
+  </si>
+  <si>
+    <t>4. Thêm thông tin cho một danh từ khác.</t>
+  </si>
+  <si>
+    <t>こちらはせんせいのHIENです。Đây là cô giáo Hiền.</t>
+  </si>
+  <si>
+    <t>と</t>
+  </si>
+  <si>
+    <t>Nghĩa: “Và”, “Với”</t>
+  </si>
+  <si>
+    <t>にくとやさいをおねがいします。</t>
+  </si>
+  <si>
+    <t>Cho tôi thịt và rau</t>
+  </si>
+  <si>
+    <t>ともだちと学校(がっこう)へ行(い)きます。</t>
+  </si>
+  <si>
+    <t>Đi đến trường cùng bạn.</t>
+  </si>
+  <si>
+    <t>も</t>
+  </si>
+  <si>
+    <t>– Nghiã : “ cũng”, “ cũng vậy”, “cũng như”.</t>
+  </si>
+  <si>
+    <t>Khi đó, ta chuyển は、が、を thànhも,　”に、で、から、と” lần lượt thành “にも、でも、からもとも“</t>
+  </si>
+  <si>
+    <t>1. 彼(かれ)も行(い)きます。Anh ấy cũng đi.       </t>
+  </si>
+  <si>
+    <t>2.うちにもアイスクリームがあります。Ở nhà cũng có kem.</t>
+  </si>
+  <si>
+    <t>新旧</t>
+  </si>
+  <si>
+    <t>損得</t>
+  </si>
+  <si>
+    <t>白黒</t>
+  </si>
+  <si>
+    <t>良し悪し</t>
+  </si>
+  <si>
+    <t>善し悪し</t>
+  </si>
+  <si>
+    <t>新鮮な空気</t>
+  </si>
+  <si>
+    <t>若者</t>
+  </si>
+  <si>
+    <t>若い者</t>
+  </si>
+  <si>
+    <t>集中力</t>
+  </si>
+  <si>
+    <t>商店街</t>
+  </si>
+  <si>
+    <t>高収入</t>
+  </si>
+  <si>
+    <t>2対１</t>
+  </si>
+  <si>
+    <t>再発行</t>
+  </si>
+  <si>
+    <t>再配達</t>
+  </si>
+  <si>
+    <t>再放送</t>
+  </si>
+  <si>
+    <t>再提出</t>
+  </si>
+  <si>
+    <t>予約制</t>
+  </si>
+  <si>
+    <t>就職率</t>
+  </si>
+  <si>
+    <t>旧制度</t>
+  </si>
+  <si>
+    <t>医学生</t>
+  </si>
+  <si>
+    <t>医学界</t>
+  </si>
+  <si>
+    <t>準決勝</t>
+  </si>
+  <si>
+    <t>決勝戦</t>
+  </si>
+  <si>
+    <t>延長戦</t>
+  </si>
+  <si>
+    <t>準優勝</t>
+  </si>
+  <si>
+    <t>現段階</t>
+  </si>
+  <si>
+    <t>非公式</t>
+  </si>
+  <si>
+    <t>総売上</t>
+  </si>
+  <si>
+    <t>文学賞</t>
+  </si>
+  <si>
+    <t>悪案件</t>
+  </si>
+  <si>
+    <t>クリーム状</t>
+  </si>
+  <si>
+    <t>来シーズン</t>
+  </si>
+  <si>
+    <t>一日置きに</t>
+  </si>
+  <si>
+    <t>ビジネスマン風</t>
+  </si>
+  <si>
+    <t>低価格</t>
+  </si>
+  <si>
+    <t>アルファベット順</t>
+  </si>
+  <si>
+    <t>仮採用＞＜本採用</t>
+  </si>
+  <si>
+    <t>真夜中</t>
+  </si>
+  <si>
+    <t>半透明</t>
+  </si>
+  <si>
+    <t>国際色</t>
+  </si>
+  <si>
+    <t>投票日</t>
+  </si>
+  <si>
+    <t>投票所</t>
+  </si>
+  <si>
+    <t>投票率</t>
+  </si>
+  <si>
+    <t>日本流</t>
+  </si>
+  <si>
+    <t>諸外国</t>
+  </si>
+  <si>
+    <t>食品類</t>
+  </si>
+  <si>
+    <t>音楽家</t>
+  </si>
+  <si>
+    <t>音楽全般</t>
+  </si>
+  <si>
+    <t>親子連れ</t>
+  </si>
+  <si>
+    <t>最有力＞＜無力</t>
+  </si>
+  <si>
+    <t>薄暗い</t>
+  </si>
+  <si>
+    <t>東京駅周辺</t>
+  </si>
+  <si>
+    <t>東京駅発</t>
+  </si>
+  <si>
+    <t>夏休み明け</t>
+  </si>
+  <si>
+    <t>夏休み中</t>
+  </si>
+  <si>
+    <t>風邪気味</t>
+  </si>
+  <si>
+    <t>作品集</t>
+  </si>
+  <si>
+    <t>ムードー色</t>
+  </si>
+  <si>
+    <t>期限切れ</t>
+  </si>
+  <si>
+    <t>線路沿い</t>
+  </si>
+  <si>
+    <t>期限性</t>
+  </si>
+  <si>
+    <t>高性能</t>
+  </si>
+  <si>
+    <t>未経験</t>
+  </si>
+  <si>
+    <t>電車賃＝運賃</t>
+  </si>
+  <si>
+    <t>総問題</t>
+  </si>
+  <si>
+    <t>真新しい</t>
+  </si>
+  <si>
+    <t>現実離れ</t>
+  </si>
+  <si>
+    <t>無責任</t>
+  </si>
+  <si>
+    <t>悪影響</t>
+  </si>
+  <si>
+    <t>応援団</t>
+  </si>
+  <si>
+    <t>子供連れ</t>
+  </si>
+  <si>
+    <t>成功率</t>
+  </si>
+  <si>
+    <t>和風＞＜洋風</t>
+  </si>
+  <si>
+    <t>招持状</t>
+  </si>
+  <si>
+    <t>和風料理、和室、洋室、</t>
+  </si>
+  <si>
+    <t>結婚観</t>
+  </si>
+  <si>
+    <t>人生観</t>
+  </si>
+  <si>
+    <t>世界観</t>
+  </si>
+  <si>
+    <t>生活水準</t>
+  </si>
+  <si>
+    <t>高水準</t>
+  </si>
+  <si>
+    <t>日本式</t>
+  </si>
+  <si>
+    <t>未使用</t>
+  </si>
+  <si>
+    <t>勉強漬け</t>
+  </si>
+  <si>
+    <t>異文化</t>
+  </si>
+  <si>
+    <t>年代順</t>
+  </si>
+  <si>
+    <t>主成分</t>
+  </si>
+  <si>
+    <t>再開発</t>
+  </si>
+  <si>
+    <t>再開発事業</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4633,8 +5485,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.9"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4695,8 +5589,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE2E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -4765,11 +5671,383 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD0D0D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD0D0D0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD0D0D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD0D0D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD0D0D0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD0D0D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD0D0D0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD0D0D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD0D0D0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD0D0D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD0D0D0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4840,6 +6118,113 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4857,6 +6242,63 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5143,430 +6585,447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q31"/>
+  <dimension ref="B3:R31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="13" width="17.42578125" customWidth="1"/>
+    <col min="3" max="14" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="N3" s="25"/>
+    <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="86" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
-    </row>
-    <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="N4" s="25"/>
+      <c r="R3" s="25"/>
+    </row>
+    <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
-    </row>
-    <row r="6" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="25"/>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="36" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="E7" s="36"/>
       <c r="I7" s="28" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>1293</v>
       </c>
-      <c r="J7" s="29" t="s">
-        <v>1298</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="29" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="41"/>
       <c r="C8" s="26" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>1288</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>1290</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>1292</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="28" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>1294</v>
       </c>
-      <c r="J8" s="29" t="s">
-        <v>1299</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="29" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="I9" s="28" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>1316</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>1295</v>
       </c>
-      <c r="J9" s="29" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>1373</v>
-      </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="29" t="s">
         <v>1368</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48"/>
-    </row>
-    <row r="10" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="83" t="s">
+        <v>1363</v>
+      </c>
+      <c r="N9" s="84"/>
+      <c r="O9" s="85"/>
+    </row>
+    <row r="10" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="40" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="30" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="I10" s="28" t="s">
+        <v>1291</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K10" s="29" t="s">
         <v>1296</v>
       </c>
-      <c r="J10" s="29" t="s">
-        <v>1301</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="29" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="41" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="40"/>
       <c r="E11" s="28" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="30" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="I11" s="28" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K11" s="29" t="s">
         <v>1297</v>
       </c>
-      <c r="J11" s="29" t="s">
-        <v>1302</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L11" s="29" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="28" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="28" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="28" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="28" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="28" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" s="28" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="28" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="45" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G19" s="45"/>
+      <c r="F19" s="82" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G19" s="82"/>
     </row>
     <row r="21" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="26" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="D21" s="26" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K21" s="26" t="s">
         <v>1306</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>1314</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>1315</v>
-      </c>
-      <c r="G21" s="26" t="s">
+      <c r="L21" s="26" t="s">
         <v>1307</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>1308</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>1309</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>1310</v>
-      </c>
-      <c r="K21" s="26" t="s">
-        <v>1311</v>
-      </c>
-      <c r="L21" s="26" t="s">
-        <v>1312</v>
-      </c>
-      <c r="M21" s="26" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="28" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="D22" s="28" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F22" s="28" t="s">
         <v>1320</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="G22" s="30" t="s">
         <v>1323</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>1325</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>1328</v>
-      </c>
       <c r="H22" s="28" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="L22" s="32" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="D23" s="28" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F23" s="28" t="s">
         <v>1321</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>1326</v>
-      </c>
       <c r="G23" s="28" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="J23" s="28" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>1336</v>
+      </c>
+      <c r="L23" s="32" t="s">
         <v>1338</v>
       </c>
-      <c r="K23" s="28" t="s">
-        <v>1341</v>
-      </c>
-      <c r="L23" s="32" t="s">
-        <v>1343</v>
-      </c>
       <c r="M23" s="31" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="39" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="C24" s="39" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E24" s="39" t="s">
         <v>1319</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="F24" s="39" t="s">
         <v>1322</v>
       </c>
-      <c r="E24" s="39" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>1327</v>
-      </c>
       <c r="G24" s="30" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="J24" s="39" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K24" s="39" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L24" s="39" t="s">
         <v>1339</v>
       </c>
-      <c r="K24" s="39" t="s">
-        <v>1342</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>1344</v>
-      </c>
       <c r="M24" s="30" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="44" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="B27" s="81" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
     </row>
     <row r="29" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="27" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="27" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="G30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="27" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="G31" s="27"/>
     </row>
@@ -5574,8 +7033,8 @@
   <mergeCells count="4">
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="C3:L4"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="C3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="landscape" r:id="rId1"/>
@@ -5584,10 +7043,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C25"/>
+  <dimension ref="C5:C22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5662,14 +7121,1292 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>1160</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J34"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="59"/>
+      <c r="C3" s="87" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="60"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="96"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="89" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="90"/>
+      <c r="C6" s="62" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="90"/>
+      <c r="C7" s="62" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="91"/>
+      <c r="C8" s="62" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="92" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="93"/>
+      <c r="C10" s="62" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="93"/>
+      <c r="C11" s="62" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="94"/>
+      <c r="C12" s="62" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="61"/>
+      <c r="C13" s="58" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="63" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="64" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="65"/>
+      <c r="C16" s="68" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="48" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E20" s="70" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="50" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E21" s="53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="50" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E22" s="54"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="50" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E23" s="53">
+        <v>14</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="50" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E24" s="54"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="46"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="50" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E25" s="53">
+        <v>15</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="46"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="50" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E26" s="54"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="46"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="50" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E27" s="53">
+        <v>24</v>
+      </c>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="46"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="50" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E28" s="54"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="50" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="50" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E30" s="53">
+        <v>17</v>
+      </c>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="46"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="50" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E31" s="53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="50" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E32" s="54"/>
+    </row>
+    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="50" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E33" s="53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="51" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E34" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D3:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="71" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C3" s="80"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="100" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="101"/>
+      <c r="C5" s="74" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="101"/>
+      <c r="C6" s="74" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="101"/>
+      <c r="C7" s="74" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="102"/>
+      <c r="C8" s="75" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="97" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="98"/>
+      <c r="C10" s="77" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="98"/>
+      <c r="C11" s="77" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="98"/>
+      <c r="C12" s="77" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="98"/>
+      <c r="C13" s="77" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="98"/>
+      <c r="C14" s="77" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="98"/>
+      <c r="C15" s="77" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="98"/>
+      <c r="C16" s="77" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="98"/>
+      <c r="C17" s="77" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="98"/>
+      <c r="C18" s="77" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="99"/>
+      <c r="C19" s="78" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="100" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="102"/>
+      <c r="C21" s="75" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="97" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="98"/>
+      <c r="C23" s="77" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="98"/>
+      <c r="C24" s="77" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="98"/>
+      <c r="C25" s="77" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="98"/>
+      <c r="C26" s="77" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="98"/>
+      <c r="C27" s="77" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="98"/>
+      <c r="C28" s="77" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="99"/>
+      <c r="C29" s="78" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="103"/>
+      <c r="C30" s="72" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="104"/>
+      <c r="C31" s="74" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="104"/>
+      <c r="C32" s="74" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="104"/>
+      <c r="C33" s="74" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="104"/>
+      <c r="C34" s="74" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="105"/>
+      <c r="C35" s="75" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="97" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C36" s="79" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="98"/>
+      <c r="C37" s="77" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="98"/>
+      <c r="C38" s="77" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="98"/>
+      <c r="C39" s="77" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="98"/>
+      <c r="C40" s="77" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="98"/>
+      <c r="C41" s="77" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="98"/>
+      <c r="C42" s="77" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="99"/>
+      <c r="C43" s="78" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="100" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C44" s="73" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="101"/>
+      <c r="C45" s="74" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="102"/>
+      <c r="C46" s="75" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="97" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C47" s="79" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="98"/>
+      <c r="C48" s="77" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="98"/>
+      <c r="C49" s="77" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="98"/>
+      <c r="C50" s="77" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="98"/>
+      <c r="C51" s="77" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="99"/>
+      <c r="C52" s="78" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="100" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C53" s="73" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="102"/>
+      <c r="C54" s="75" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="97" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C55" s="79" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="98"/>
+      <c r="C56" s="77" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="98"/>
+      <c r="C57" s="77" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="98"/>
+      <c r="C58" s="77" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="98"/>
+      <c r="C59" s="77" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="98"/>
+      <c r="C60" s="77" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="98"/>
+      <c r="C61" s="77" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="99"/>
+      <c r="C62" s="78" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="100" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C63" s="73" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="101"/>
+      <c r="C64" s="74" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="101"/>
+      <c r="C65" s="74" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="101"/>
+      <c r="C66" s="74" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="102"/>
+      <c r="C67" s="75" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="97" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C68" s="79" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="98"/>
+      <c r="C69" s="77" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="98"/>
+      <c r="C70" s="77" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="98"/>
+      <c r="C71" s="77" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="99"/>
+      <c r="C72" s="78" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="B63:B67"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A3:F61"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2010</v>
+      </c>
+      <c r="B3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2012</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2013</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2014</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2015</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2016</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>1743</v>
       </c>
     </row>
   </sheetData>
@@ -5684,8 +8421,8 @@
   </sheetPr>
   <dimension ref="B2:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5922,7 +8659,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5973,7 +8710,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -6065,13 +8802,13 @@
     </row>
     <row r="25" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -6083,13 +8820,13 @@
     </row>
     <row r="26" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -6101,7 +8838,7 @@
     </row>
     <row r="27" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="4"/>
@@ -6131,13 +8868,13 @@
     </row>
     <row r="29" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -6202,7 +8939,7 @@
         <v>50</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -6249,7 +8986,7 @@
     </row>
     <row r="36" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="4" t="s">
@@ -6341,13 +9078,13 @@
     </row>
     <row r="42" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B42" s="19" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>1277</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>1281</v>
-      </c>
       <c r="D42" s="19" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -6362,10 +9099,10 @@
         <v>1060</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -6377,13 +9114,13 @@
     </row>
     <row r="44" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -6395,11 +9132,11 @@
     </row>
     <row r="45" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -6414,10 +9151,10 @@
         <v>64</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -6429,13 +9166,13 @@
     </row>
     <row r="47" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -6447,13 +9184,13 @@
     </row>
     <row r="48" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -6468,7 +9205,7 @@
         <v>65</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -6509,11 +9246,11 @@
     </row>
     <row r="52" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="34" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="4" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -6529,7 +9266,7 @@
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="4" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -6541,7 +9278,7 @@
     </row>
     <row r="54" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="34" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="4"/>
@@ -6559,7 +9296,7 @@
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -6698,7 +9435,7 @@
   </sheetPr>
   <dimension ref="A3:I110"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
@@ -6826,7 +9563,7 @@
     </row>
     <row r="12" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="C12" s="7"/>
       <c r="E12" s="4"/>
@@ -7319,7 +10056,7 @@
     </row>
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>142</v>
@@ -7462,7 +10199,7 @@
     </row>
     <row r="74" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="C74" s="7"/>
     </row>
@@ -7605,7 +10342,7 @@
         <v>225</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7613,7 +10350,7 @@
         <v>1134</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7621,7 +10358,7 @@
         <v>226</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>256</v>
@@ -7632,7 +10369,7 @@
         <v>227</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>228</v>
@@ -7717,7 +10454,7 @@
     </row>
     <row r="105" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>248</v>
@@ -7757,7 +10494,7 @@
     </row>
     <row r="110" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B110" s="35" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
     </row>
   </sheetData>
@@ -7770,7 +10507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -7919,24 +10656,24 @@
     </row>
     <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="C21" s="7"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="C22" s="7"/>
     </row>
@@ -7972,21 +10709,21 @@
         <v>315</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="E26" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="37" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="E27" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -8772,10 +11509,10 @@
         <v>481</v>
       </c>
       <c r="C129" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="E129" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
@@ -8793,13 +11530,13 @@
     </row>
     <row r="132" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B132" s="17" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="C132" s="7"/>
     </row>
     <row r="133" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B133" s="17" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="C133" s="7"/>
     </row>
@@ -8821,10 +11558,10 @@
     </row>
     <row r="136" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B136" s="17" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
     </row>
   </sheetData>
@@ -8840,8 +11577,8 @@
   </sheetPr>
   <dimension ref="B3:E131"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView topLeftCell="A118" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8943,7 +11680,7 @@
         <v>528</v>
       </c>
       <c r="E16" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -8954,7 +11691,7 @@
         <v>729</v>
       </c>
       <c r="E17" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -8970,7 +11707,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -8980,7 +11717,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -9255,7 +11992,7 @@
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="17" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
@@ -9297,12 +12034,12 @@
         <v>602</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="17" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>604</v>
@@ -9399,7 +12136,7 @@
         <v>625</v>
       </c>
       <c r="E79" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -9410,7 +12147,7 @@
         <v>627</v>
       </c>
       <c r="E80" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -9736,7 +12473,7 @@
         <v>692</v>
       </c>
       <c r="C120" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
@@ -9744,7 +12481,7 @@
         <v>693</v>
       </c>
       <c r="C121" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="122" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -9768,7 +12505,7 @@
         <v>698</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="125" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -9776,7 +12513,7 @@
         <v>699</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="126" spans="2:5" ht="18" x14ac:dyDescent="0.25">
@@ -9843,7 +12580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:F183"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A163" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -9977,7 +12714,7 @@
         <v>770</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -10408,7 +13145,7 @@
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" s="6" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="D81" s="6"/>
     </row>
@@ -10907,7 +13644,7 @@
         <v>935</v>
       </c>
       <c r="F155" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.25">
@@ -11084,7 +13821,7 @@
     </row>
     <row r="179" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C179" s="6" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>981</v>
@@ -11139,7 +13876,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:H139"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -11152,7 +13889,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11173,10 +13910,10 @@
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="C6" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -11219,7 +13956,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -11239,12 +13976,12 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -11265,7 +14002,7 @@
         <v>1042</v>
       </c>
       <c r="H19" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -11280,42 +14017,42 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="42" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="42" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="42" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="42" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="42" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="42" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -11325,12 +14062,12 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="42" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="43" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -11429,12 +14166,12 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -11449,7 +14186,7 @@
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -11482,7 +14219,7 @@
         <v>1069</v>
       </c>
       <c r="C60" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
@@ -11502,7 +14239,7 @@
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
@@ -11655,7 +14392,7 @@
         <v>1102</v>
       </c>
       <c r="E94" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
@@ -11891,583 +14628,758 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D88"/>
+  <dimension ref="B2:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D9" t="s">
-        <v>1176</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>1177</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>1181</v>
       </c>
-      <c r="C12" s="7" t="s">
+    </row>
+    <row r="16" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>1404</v>
+        <v>1185</v>
       </c>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C21" s="6"/>
     </row>
     <row r="22" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C24" s="6"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>1207</v>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="44" t="s">
+        <v>1125</v>
       </c>
       <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>1208</v>
+      <c r="D35" s="45" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="44" t="s">
+        <v>13</v>
       </c>
       <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>1209</v>
+      <c r="D36" s="45" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="44" t="s">
+        <v>15</v>
       </c>
       <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="45" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>1210</v>
+        <v>1487</v>
       </c>
       <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="45" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>1211</v>
+        <v>1488</v>
       </c>
       <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="45" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>1212</v>
+        <v>1666</v>
       </c>
       <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="45"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>1213</v>
+        <v>1667</v>
       </c>
       <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>1214</v>
-      </c>
+      <c r="D41" s="45"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>1215</v>
-      </c>
+      <c r="D42" s="45"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>1216</v>
+      <c r="D43" s="45"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="44" t="s">
+        <v>1493</v>
       </c>
       <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
-        <v>969</v>
+      <c r="D44" s="45"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="44" t="s">
+        <v>1494</v>
       </c>
       <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
-        <v>1217</v>
+      <c r="D45" s="45"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="44" t="s">
+        <v>1495</v>
       </c>
       <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>1218</v>
+      <c r="D46" s="45"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="44" t="s">
+        <v>1496</v>
       </c>
       <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="45"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>1219</v>
+        <v>1204</v>
       </c>
       <c r="C48" s="6"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>1220</v>
+        <v>1205</v>
       </c>
       <c r="C49" s="6"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>1221</v>
+        <v>1206</v>
       </c>
       <c r="C50" s="6"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>1222</v>
+        <v>1207</v>
       </c>
       <c r="C51" s="6"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>1222</v>
+        <v>1208</v>
       </c>
       <c r="C52" s="6"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
       <c r="C53" s="6"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>1224</v>
+        <v>1210</v>
       </c>
       <c r="C54" s="6"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>1225</v>
+        <v>1491</v>
       </c>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>1226</v>
+        <v>1211</v>
       </c>
       <c r="C56" s="6"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>1227</v>
+        <v>1492</v>
       </c>
       <c r="C57" s="6"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="C58" s="6"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>1229</v>
+        <v>969</v>
       </c>
       <c r="C59" s="6"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>1230</v>
+        <v>1213</v>
       </c>
       <c r="C60" s="6"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>1231</v>
+        <v>1214</v>
       </c>
       <c r="C61" s="6"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
-        <v>1232</v>
+        <v>1215</v>
       </c>
       <c r="C62" s="6"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
-        <v>1233</v>
+        <v>1216</v>
       </c>
       <c r="C63" s="6"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>1234</v>
+        <v>1217</v>
       </c>
       <c r="C64" s="6"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>1235</v>
+        <v>1218</v>
       </c>
       <c r="C65" s="6"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>1236</v>
+        <v>1218</v>
       </c>
       <c r="C66" s="6"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="C67" s="6"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>1238</v>
+        <v>1220</v>
       </c>
       <c r="C68" s="6"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>1239</v>
+        <v>1221</v>
       </c>
       <c r="C69" s="6"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>1240</v>
+        <v>1222</v>
       </c>
       <c r="C70" s="6"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>1241</v>
+        <v>1223</v>
       </c>
       <c r="C71" s="6"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>1242</v>
+        <v>1224</v>
       </c>
       <c r="C72" s="6"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
-        <v>476</v>
+        <v>1225</v>
       </c>
       <c r="C73" s="6"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>1243</v>
+        <v>1226</v>
       </c>
       <c r="C74" s="6"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>1244</v>
+        <v>1227</v>
       </c>
       <c r="C75" s="6"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>1245</v>
+        <v>1228</v>
       </c>
       <c r="C76" s="6"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>1246</v>
+        <v>1229</v>
       </c>
       <c r="C77" s="6"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="C78" s="6"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
       <c r="C79" s="6"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C80" s="6"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="44" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="44" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="44" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="44" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="44" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C88" s="6"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C92" s="6"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C93" s="6"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C94" s="6"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C95" s="6"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C96" s="6"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C97" s="6"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C98" s="6"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C99" s="6"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C100" s="6"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="6" t="s">
         <v>1249</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C106" s="7" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="6" t="s">
+    <row r="107" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
         <v>1251</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C107" s="7" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="6" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="6" t="s">
+    <row r="108" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C108" s="7" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="6" t="s">
+    <row r="109" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
         <v>1257</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C109" s="7" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="6" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="6" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C86" s="7" t="s">
+      <c r="C110" s="7" t="s">
         <v>1260</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="6" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>1264</v>
       </c>
     </row>
   </sheetData>
@@ -12478,10 +15390,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E10"/>
+  <dimension ref="C3:F10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12489,64 +15401,88 @@
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C3" s="12" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="E3" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>1417</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
         <v>792</v>
       </c>
       <c r="E4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E9" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
-        <v>1421</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
-        <v>1419</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F9" s="6" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C10" s="38"/>
+      <c r="F10" s="6" t="s">
+        <v>1665</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
